--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_414__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_414__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,217 +5990,217 @@
                   <c:v>63.75596618652344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.10416030883789</c:v>
+                  <c:v>48.10415649414062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.37898063659668</c:v>
+                  <c:v>29.37897682189941</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56.88769912719727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.96273994445801</c:v>
+                  <c:v>29.96274566650391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.55548858642578</c:v>
+                  <c:v>52.55549240112305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.8958854675293</c:v>
+                  <c:v>55.89588928222656</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44.59809494018555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42.09099960327148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.34712600708008</c:v>
+                  <c:v>44.34711837768555</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.918544769287109</c:v>
+                  <c:v>-2.9185471534729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47.09514617919922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.39096450805664</c:v>
+                  <c:v>44.39096069335938</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.75614547729492</c:v>
+                  <c:v>44.75615692138672</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.95338439941406</c:v>
+                  <c:v>43.95338821411133</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43.28892517089844</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.66066646575928</c:v>
+                  <c:v>14.66066360473633</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-16.29419898986816</c:v>
+                  <c:v>-16.2942066192627</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.81465530395508</c:v>
+                  <c:v>18.81466674804688</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56.55144882202148</c:v>
+                  <c:v>56.55145645141602</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35.42728805541992</c:v>
+                  <c:v>35.42729568481445</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.37673950195312</c:v>
+                  <c:v>53.37673568725586</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>60.09011840820312</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44.69290161132812</c:v>
+                  <c:v>44.69289398193359</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.34806442260742</c:v>
+                  <c:v>48.34805679321289</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>28.5455322265625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44.22738265991211</c:v>
+                  <c:v>44.22736740112305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39.05193328857422</c:v>
+                  <c:v>39.05190277099609</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45.14355850219727</c:v>
+                  <c:v>45.1435546875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>36.52140426635742</c:v>
+                  <c:v>36.52140808105469</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>40.27267074584961</c:v>
+                  <c:v>40.27266693115234</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>53.95149612426758</c:v>
+                  <c:v>53.95149230957031</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>56.82089614868164</c:v>
@@ -6209,82 +6209,82 @@
                   <c:v>54.80929183959961</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>26.50894355773926</c:v>
+                  <c:v>26.50893974304199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.791734337806702</c:v>
+                  <c:v>1.791733741760254</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.609853744506836</c:v>
+                  <c:v>2.609867095947266</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45.4887809753418</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42.00065994262695</c:v>
+                  <c:v>42.00065612792969</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>59.81903076171875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>47.19781875610352</c:v>
+                  <c:v>47.19782257080078</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.32601356506348</c:v>
+                  <c:v>19.32598876953125</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.25455474853516</c:v>
+                  <c:v>45.25455856323242</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>56.32196807861328</c:v>
+                  <c:v>56.32197189331055</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43.46476745605469</c:v>
+                  <c:v>43.46476364135742</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>84.19915008544922</c:v>
+                  <c:v>84.19915771484375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42.08696746826172</c:v>
+                  <c:v>42.08695602416992</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.378022909164429</c:v>
+                  <c:v>1.37802791595459</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.127127885818481</c:v>
+                  <c:v>2.12712836265564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>48.10416030883789</v>
+        <v>48.10415649414062</v>
       </c>
       <c r="G3">
         <v>93</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
       <c r="G4">
         <v>93</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>29.37898063659668</v>
+        <v>29.37897682189941</v>
       </c>
       <c r="G5">
         <v>93</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
       <c r="G7">
         <v>93</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.96273994445801</v>
+        <v>29.96274566650391</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>52.55548858642578</v>
+        <v>52.55549240112305</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>55.8958854675293</v>
+        <v>55.89588928222656</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>44.34712600708008</v>
+        <v>44.34711837768555</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.918544769287109</v>
+        <v>-2.9185471534729</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>44.39096450805664</v>
+        <v>44.39096069335938</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>44.75614547729492</v>
+        <v>44.75615692138672</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.8156</v>
       </c>
       <c r="F41">
-        <v>43.95338439941406</v>
+        <v>43.95338821411133</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>14.66066646575928</v>
+        <v>14.66066360473633</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-16.29419898986816</v>
+        <v>-16.2942066192627</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>18.81465530395508</v>
+        <v>18.81466674804688</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>56.55144882202148</v>
+        <v>56.55145645141602</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>35.42728805541992</v>
+        <v>35.42729568481445</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>53.37673950195312</v>
+        <v>53.37673568725586</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>44.69290161132812</v>
+        <v>44.69289398193359</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>48.34806442260742</v>
+        <v>48.34805679321289</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>44.22738265991211</v>
+        <v>44.22736740112305</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>39.05193328857422</v>
+        <v>39.05190277099609</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>45.14355850219727</v>
+        <v>45.1435546875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>36.52140426635742</v>
+        <v>36.52140808105469</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>40.27267074584961</v>
+        <v>40.27266693115234</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>53.95149612426758</v>
+        <v>53.95149230957031</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>26.50894355773926</v>
+        <v>26.50893974304199</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.791734337806702</v>
+        <v>1.791733741760254</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>2.609853744506836</v>
+        <v>2.609867095947266</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>42.00065994262695</v>
+        <v>42.00065612792969</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>47.19781875610352</v>
+        <v>47.19782257080078</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>19.32601356506348</v>
+        <v>19.32598876953125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>45.25455474853516</v>
+        <v>45.25455856323242</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>56.32196807861328</v>
+        <v>56.32197189331055</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>43.46476745605469</v>
+        <v>43.46476364135742</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>84.19915008544922</v>
+        <v>84.19915771484375</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>42.08696746826172</v>
+        <v>42.08695602416992</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>1.378022909164429</v>
+        <v>1.37802791595459</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.127127885818481</v>
+        <v>2.12712836265564</v>
       </c>
     </row>
     <row r="102" spans="1:6">
